--- a/classification/droptc/sentence/modern-bert/freeze/87212562/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.267896980047226</v>
+        <v>0.3161177933216095</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3923958241939545</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3557218313217163</v>
+        <v>0.8789127469062805</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6103765964508057</v>
+        <v>0.7585647702217102</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6250494718551636</v>
+        <v>0.973414421081543</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8663394451141357</v>
+        <v>0.7745867371559143</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4850050210952759</v>
+        <v>0.6514427065849304</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2665750682353973</v>
+        <v>0.8823176622390747</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3972519934177399</v>
+        <v>0.6514427065849304</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6460925936698914</v>
+        <v>0.7451694011688232</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3228158056735992</v>
+        <v>0.7129302620887756</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7042933106422424</v>
+        <v>0.8373741507530212</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.467694878578186</v>
+        <v>0.8362451195716858</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4337133765220642</v>
+        <v>0.931964635848999</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.377309262752533</v>
+        <v>0.8641386032104492</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.7891498804092407</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5864566564559937</v>
+        <v>0.7104204893112183</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8093105554580688</v>
+        <v>0.9855362772941589</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6611656546592712</v>
+        <v>0.8412014245986938</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.720879852771759</v>
+        <v>0.9963739514350891</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5554400086402893</v>
+        <v>0.7381070256233215</v>
       </c>
     </row>
     <row r="23">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3316835165023804</v>
+        <v>0.9890244603157043</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.360679030418396</v>
+        <v>0.9272327423095703</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6903824806213379</v>
+        <v>0.3865809142589569</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3875009715557098</v>
+        <v>0.4789955019950867</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.831946849822998</v>
+        <v>0.9647870063781738</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7654268145561218</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3142959177494049</v>
+        <v>0.6946277618408203</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8672606348991394</v>
+        <v>0.9350554943084717</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5476584434509277</v>
+        <v>0.8515389561653137</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8658924698829651</v>
+        <v>0.8720173239707947</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8792973160743713</v>
+        <v>0.6595840454101562</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7731558680534363</v>
+        <v>0.9388385415077209</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7546626925468445</v>
+        <v>0.9643062353134155</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.454379141330719</v>
+        <v>0.9505650401115417</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5117285847663879</v>
+        <v>0.9682508707046509</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4012661278247833</v>
+        <v>0.9539417624473572</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8397675752639771</v>
+        <v>0.9721071124076843</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6775376200675964</v>
+        <v>0.256228119134903</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3557218313217163</v>
+        <v>0.995713472366333</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5972757339477539</v>
+        <v>0.5214381814002991</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.6518784165382385</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2665750682353973</v>
+        <v>0.9082691073417664</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7186386585235596</v>
+        <v>0.8918190002441406</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4980424642562866</v>
+        <v>0.9075475335121155</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8071830868721008</v>
+        <v>0.6747130751609802</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7057837843894958</v>
+        <v>0.8407453894615173</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7719293236732483</v>
+        <v>0.9993159770965576</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3705819249153137</v>
+        <v>0.9020971655845642</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9412850141525269</v>
+        <v>0.7350721955299377</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5879476070404053</v>
+        <v>0.9034348130226135</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6548221707344055</v>
+        <v>0.9020971655845642</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.770531177520752</v>
+        <v>0.673150897026062</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.577910840511322</v>
+        <v>0.9967471361160278</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8611453175544739</v>
+        <v>0.9984408020973206</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6304453611373901</v>
+        <v>0.9985769987106323</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7478001117706299</v>
+        <v>0.8587659001350403</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.360679030418396</v>
+        <v>0.9852982759475708</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3775854110717773</v>
+        <v>0.8641340136528015</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4198043048381805</v>
+        <v>0.9591808319091797</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4350204467773438</v>
+        <v>0.8395228385925293</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7002376317977905</v>
+        <v>0.8667663335800171</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.300607293844223</v>
+        <v>0.7323898077011108</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8125882148742676</v>
+        <v>0.9203787446022034</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8289545178413391</v>
+        <v>0.9203787446022034</v>
       </c>
     </row>
     <row r="67">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4058509171009064</v>
+        <v>0.7854968905448914</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6270518898963928</v>
+        <v>0.9203787446022034</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7453069686889648</v>
+        <v>0.7104111909866333</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8171480298042297</v>
+        <v>0.9076189398765564</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8301010727882385</v>
+        <v>0.5966203212738037</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7961376905441284</v>
+        <v>0.9892063140869141</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2852725386619568</v>
+        <v>0.8706587553024292</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8408204317092896</v>
+        <v>0.6122417449951172</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8609633445739746</v>
+        <v>0.5778490304946899</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2811081409454346</v>
+        <v>0.8706587553024292</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5879721641540527</v>
+        <v>0.5248141884803772</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5875372290611267</v>
+        <v>0.8706587553024292</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5091918110847473</v>
+        <v>0.9930168390274048</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6166729927062988</v>
+        <v>0.4453723132610321</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8792973160743713</v>
+        <v>0.3046487271785736</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6651365756988525</v>
+        <v>0.6364728808403015</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8268238306045532</v>
+        <v>0.8213580846786499</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7295374274253845</v>
+        <v>0.8213580846786499</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6528514623641968</v>
+        <v>0.9852408766746521</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7500110864639282</v>
+        <v>0.8912398815155029</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4003715813159943</v>
+        <v>0.9144746065139771</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7548350095748901</v>
+        <v>0.8436720371246338</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8564029932022095</v>
+        <v>0.6968732476234436</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5506178736686707</v>
+        <v>0.9802899956703186</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.978654682636261</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7056671380996704</v>
+        <v>0.9766896963119507</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3831785917282104</v>
+        <v>0.9842627644538879</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5989066958427429</v>
+        <v>0.983720064163208</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7676376700401306</v>
+        <v>0.9766289591789246</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6861433982849121</v>
+        <v>0.9860677123069763</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7314425110816956</v>
+        <v>0.4070996642112732</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4337133765220642</v>
+        <v>0.9834398031234741</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2558172941207886</v>
+        <v>0.9059207439422607</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2691871225833893</v>
+        <v>0.7492496967315674</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5178639888763428</v>
+        <v>0.9440490007400513</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7542823553085327</v>
+        <v>0.6245798468589783</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7714294791221619</v>
+        <v>0.5916376113891602</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8173239827156067</v>
+        <v>0.8634600043296814</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6207247972488403</v>
+        <v>0.9291418194770813</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2712524235248566</v>
+        <v>0.9577573537826538</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6056869029998779</v>
+        <v>0.4793906807899475</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7506024241447449</v>
+        <v>0.6282021403312683</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8724375367164612</v>
+        <v>0.9520232081413269</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7781134247779846</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5538453459739685</v>
+        <v>0.7308865189552307</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6985151171684265</v>
+        <v>0.6379576325416565</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9491482973098755</v>
+        <v>0.8784028291702271</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6321545839309692</v>
+        <v>0.975402295589447</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3850323855876923</v>
+        <v>0.7411683797836304</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5758408308029175</v>
+        <v>0.40096515417099</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8305150270462036</v>
+        <v>0.773906946182251</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7144390940666199</v>
+        <v>0.4098987281322479</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2811081409454346</v>
+        <v>0.6376355886459351</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6140164732933044</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6176730394363403</v>
+        <v>0.7764342427253723</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5032016038894653</v>
+        <v>0.9559383988380432</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6988456845283508</v>
+        <v>0.7764342427253723</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.9559383988380432</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2760814130306244</v>
+        <v>0.7764342427253723</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7382258772850037</v>
+        <v>0.9958833456039429</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6232619881629944</v>
+        <v>0.2890753448009491</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3082830309867859</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.375207245349884</v>
+        <v>0.5823270082473755</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.393604040145874</v>
+        <v>0.4248146414756775</v>
       </c>
     </row>
     <row r="131">
@@ -4095,14 +4095,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3750543594360352</v>
+        <v>0.9889149069786072</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6784783005714417</v>
+        <v>0.5842065811157227</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3740894496440887</v>
+        <v>0.9369290471076965</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7338786721229553</v>
+        <v>0.5206125974655151</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6294535398483276</v>
+        <v>0.9908473491668701</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5714812278747559</v>
+        <v>0.836005687713623</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3454100489616394</v>
+        <v>0.984796404838562</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.8077940344810486</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2712524235248566</v>
+        <v>0.9861844182014465</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4225082099437714</v>
+        <v>0.9928402900695801</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9419885873794556</v>
+        <v>0.7877027988433838</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5619834065437317</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6438287496566772</v>
+        <v>0.478793203830719</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.767917275428772</v>
+        <v>0.9667401313781738</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6847602725028992</v>
+        <v>0.478793203830719</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5747452974319458</v>
+        <v>0.9553762674331665</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6548221707344055</v>
+        <v>0.7104111909866333</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3099173903465271</v>
+        <v>0.8790214657783508</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.8436038494110107</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4025090932846069</v>
+        <v>0.3267683982849121</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9096221327781677</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.3569497466087341</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5064510703086853</v>
+        <v>0.9805666208267212</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6056869029998779</v>
+        <v>0.7927228212356567</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6884286403656006</v>
+        <v>0.9956598877906799</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7731450200080872</v>
+        <v>0.5747336149215698</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.3582037091255188</v>
+        <v>0.9948471784591675</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7355522513389587</v>
+        <v>0.7378185987472534</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.6482086777687073</v>
+        <v>0.9976102113723755</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6445338129997253</v>
+        <v>0.6818640828132629</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2601974010467529</v>
+        <v>0.988353967666626</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5627971291542053</v>
+        <v>0.9614481329917908</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.77702397108078</v>
+        <v>0.8185796737670898</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8246365785598755</v>
+        <v>0.5540098547935486</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8350990414619446</v>
+        <v>0.9905126690864563</v>
       </c>
     </row>
     <row r="166">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7163069248199463</v>
+        <v>0.8798995018005371</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9109868407249451</v>
+        <v>0.6702972650527954</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6114582419395447</v>
+        <v>0.5909771323204041</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.767855703830719</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6225617527961731</v>
+        <v>0.6702972650527954</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6335130333900452</v>
+        <v>0.7545717358589172</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8695344924926758</v>
+        <v>0.9995816349983215</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7338366508483887</v>
+        <v>0.8700670599937439</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.9223408699035645</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8619763255119324</v>
+        <v>0.8700670599937439</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.577910840511322</v>
+        <v>0.817217230796814</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7389386892318726</v>
+        <v>0.9223408699035645</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5864823460578918</v>
+        <v>0.8773488402366638</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5476584434509277</v>
+        <v>0.9758408665657043</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5068101286888123</v>
+        <v>0.963911235332489</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.90342116355896</v>
+        <v>0.6006757020950317</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.4003715813159943</v>
+        <v>0.9577206373214722</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.394731342792511</v>
+        <v>0.4021135270595551</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6997368931770325</v>
+        <v>0.99910968542099</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.5160159468650818</v>
+        <v>0.9624075889587402</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4003715813159943</v>
+        <v>0.9673380851745605</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5240247249603271</v>
+        <v>0.9632828235626221</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.5642993450164795</v>
+        <v>0.9630160927772522</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6846567392349243</v>
+        <v>0.968139111995697</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5041583776473999</v>
+        <v>0.9730772376060486</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5152066349983215</v>
+        <v>0.3842125535011292</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.5531243085861206</v>
+        <v>0.9455751180648804</v>
       </c>
     </row>
     <row r="193">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.2712524235248566</v>
+        <v>0.9610344171524048</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7391757369041443</v>
+        <v>0.8662001490592957</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7444829940795898</v>
+        <v>0.5932472348213196</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7772017121315002</v>
+        <v>0.9988920092582703</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6827541589736938</v>
+        <v>0.7736363410949707</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7781782746315002</v>
+        <v>0.4461170434951782</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3957852423191071</v>
+        <v>0.9071143269538879</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5075241923332214</v>
+        <v>0.8668971061706543</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.360679030418396</v>
+        <v>0.9978936314582825</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6240164637565613</v>
+        <v>0.978853702545166</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5076480507850647</v>
+        <v>0.8108404874801636</v>
       </c>
     </row>
     <row r="204">
@@ -6139,14 +6139,14 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6001455187797546</v>
+        <v>0.3688909411430359</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7908598780632019</v>
+        <v>0.6121276021003723</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4893835783004761</v>
+        <v>0.9948185086250305</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6598783135414124</v>
+        <v>0.4026191234588623</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.2849895358085632</v>
+        <v>0.9659584164619446</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9050070643424988</v>
+        <v>0.4294234216213226</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6233693957328796</v>
+        <v>0.9992849230766296</v>
       </c>
     </row>
   </sheetData>
